--- a/Gasoline.xlsx
+++ b/Gasoline.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annikalindgren/Desktop/QMBE_3730_Annika_Lindgren_2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B312BAAF-C2C6-1C49-9460-4DB9D581669F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89C6620F-D46B-B342-A8E4-7366C2B4AD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gasoline Sales Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Regression" sheetId="3" r:id="rId2"/>
+    <sheet name="Exponential Smoothing" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,12 +35,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Week</t>
   </si>
   <si>
     <t>Sales (1000s of gallons)</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
   </si>
 </sst>
 </file>
@@ -49,7 +122,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +149,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -85,7 +166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -93,11 +174,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -113,6 +214,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -420,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -877,11 +986,237 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0F77B5-0D9D-514D-ABE7-DDDF765E989C}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView zoomScale="171" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3.492021117127924E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1.2194211482467357E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8">
+        <v>-9.8658636736928595E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2.6488551425915245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
+        <v>8.566433566433318E-2</v>
+      </c>
+      <c r="D12" s="8">
+        <v>8.566433566433318E-2</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1.2209099516618971E-2</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.91420311321031833</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8">
+        <v>70.164335664335667</v>
+      </c>
+      <c r="D13" s="8">
+        <v>7.0164335664335669</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9">
+        <v>11</v>
+      </c>
+      <c r="C14" s="9">
+        <v>70.25</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8">
+        <v>19.09090909090909</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1.6302576444493191</v>
+      </c>
+      <c r="D17" s="8">
+        <v>11.710363178427396</v>
+      </c>
+      <c r="E17" s="8">
+        <v>3.6747976490572523E-7</v>
+      </c>
+      <c r="F17" s="8">
+        <v>15.458468694563937</v>
+      </c>
+      <c r="G17" s="8">
+        <v>22.723349487254243</v>
+      </c>
+      <c r="H17" s="8">
+        <v>15.458468694563937</v>
+      </c>
+      <c r="I17" s="8">
+        <v>22.723349487254243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2.4475524475524476E-2</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.22150839486583557</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.11049479407021548</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.91420311321031711</v>
+      </c>
+      <c r="F18" s="9">
+        <v>-0.46907593616616072</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.51802698511720968</v>
+      </c>
+      <c r="H18" s="9">
+        <v>-0.46907593616616072</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.51802698511720968</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6881EBE-E4C8-8241-A8A3-836CED99A749}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="142" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
